--- a/Code/Results/Cases/Case_4_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.532076492903855</v>
+        <v>1.967571021544131</v>
       </c>
       <c r="C2">
-        <v>0.5051444020395763</v>
+        <v>0.1637334480314792</v>
       </c>
       <c r="D2">
-        <v>0.200533455465802</v>
+        <v>0.4266199014622885</v>
       </c>
       <c r="E2">
-        <v>0.04284046312056011</v>
+        <v>0.1132740720607268</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.910144802015196</v>
+        <v>2.744180517121833</v>
       </c>
       <c r="H2">
-        <v>1.176153333691587</v>
+        <v>2.164845502587241</v>
       </c>
       <c r="I2">
-        <v>1.163011102392566</v>
+        <v>2.064196837229218</v>
       </c>
       <c r="J2">
-        <v>0.04990730072807281</v>
+        <v>0.03841630471900359</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3044863648018747</v>
+        <v>0.5270728295534326</v>
       </c>
       <c r="M2">
-        <v>0.5017053044965252</v>
+        <v>0.5186856003755764</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.208318460280793</v>
+        <v>1.890872322692871</v>
       </c>
       <c r="C3">
-        <v>0.4367985602465012</v>
+        <v>0.1447541359414402</v>
       </c>
       <c r="D3">
-        <v>0.1923365847847265</v>
+        <v>0.4268612994262497</v>
       </c>
       <c r="E3">
-        <v>0.04350838575201266</v>
+        <v>0.1137379469430866</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.802105083416109</v>
+        <v>2.734431218647131</v>
       </c>
       <c r="H3">
-        <v>1.136096830077605</v>
+        <v>2.167547073505574</v>
       </c>
       <c r="I3">
-        <v>1.133916166530945</v>
+        <v>2.069047276777681</v>
       </c>
       <c r="J3">
-        <v>0.04555889605942554</v>
+        <v>0.0369281932152461</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2815569753882414</v>
+        <v>0.5242597289030186</v>
       </c>
       <c r="M3">
-        <v>0.4428518716632155</v>
+        <v>0.506099083042379</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.011892451334461</v>
+        <v>1.844769412694802</v>
       </c>
       <c r="C4">
-        <v>0.3952349259450614</v>
+        <v>0.1331379115483742</v>
       </c>
       <c r="D4">
-        <v>0.1875794920747325</v>
+        <v>0.4271686745170129</v>
       </c>
       <c r="E4">
-        <v>0.04394223480220205</v>
+        <v>0.1140405009964129</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.739718875610009</v>
+        <v>2.729935943309243</v>
       </c>
       <c r="H4">
-        <v>1.113642360772843</v>
+        <v>2.170171481535164</v>
       </c>
       <c r="I4">
-        <v>1.118302362806631</v>
+        <v>2.072979670394673</v>
       </c>
       <c r="J4">
-        <v>0.04289803472736509</v>
+        <v>0.03600117836106165</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2679013289517513</v>
+        <v>0.5227580552600273</v>
       </c>
       <c r="M4">
-        <v>0.4072713888554276</v>
+        <v>0.4986281983259531</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.932366997209499</v>
+        <v>1.826231723026069</v>
       </c>
       <c r="C5">
-        <v>0.3783805509535227</v>
+        <v>0.1284134402068275</v>
       </c>
       <c r="D5">
-        <v>0.1857063871880129</v>
+        <v>0.4273339847342115</v>
       </c>
       <c r="E5">
-        <v>0.04412495331275812</v>
+        <v>0.1141682619170927</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.715216015665959</v>
+        <v>2.728477983413086</v>
       </c>
       <c r="H5">
-        <v>1.104996279267766</v>
+        <v>2.171483475714922</v>
       </c>
       <c r="I5">
-        <v>1.112470745479619</v>
+        <v>2.074821666115312</v>
       </c>
       <c r="J5">
-        <v>0.04181493132890424</v>
+        <v>0.03562004870457613</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.262434979354083</v>
+        <v>0.5222028807414603</v>
       </c>
       <c r="M5">
-        <v>0.3928969243936393</v>
+        <v>0.4956485522005067</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.919191180248049</v>
+        <v>1.823168647764589</v>
       </c>
       <c r="C6">
-        <v>0.375586425409324</v>
+        <v>0.127629500047135</v>
       </c>
       <c r="D6">
-        <v>0.1853992035193173</v>
+        <v>0.4273638543759901</v>
       </c>
       <c r="E6">
-        <v>0.0441556498782969</v>
+        <v>0.1141897466104336</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.711200856425677</v>
+        <v>2.728258444428747</v>
       </c>
       <c r="H6">
-        <v>1.103590117150873</v>
+        <v>2.171715970964925</v>
       </c>
       <c r="I6">
-        <v>1.111533518756595</v>
+        <v>2.075141981617236</v>
       </c>
       <c r="J6">
-        <v>0.04163512697420302</v>
+        <v>0.03555655876875008</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2615330201822985</v>
+        <v>0.522114124567068</v>
       </c>
       <c r="M6">
-        <v>0.3905171837696599</v>
+        <v>0.4951577011303669</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.010817933031433</v>
+        <v>1.844518395449711</v>
       </c>
       <c r="C7">
-        <v>0.3950073076863703</v>
+        <v>0.133074158422545</v>
       </c>
       <c r="D7">
-        <v>0.187553970688235</v>
+        <v>0.4271707417350896</v>
       </c>
       <c r="E7">
-        <v>0.04394467509325528</v>
+        <v>0.114042205923917</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.739384789451123</v>
+        <v>2.729914768150962</v>
       </c>
       <c r="H7">
-        <v>1.11352375784935</v>
+        <v>2.170188193965515</v>
       </c>
       <c r="I7">
-        <v>1.118221609206685</v>
+        <v>2.073003542994272</v>
       </c>
       <c r="J7">
-        <v>0.04288342402426437</v>
+        <v>0.03599605195458011</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2678272193628146</v>
+        <v>0.5227503380623375</v>
       </c>
       <c r="M7">
-        <v>0.4070770430500446</v>
+        <v>0.4985877512647718</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.419907654120664</v>
+        <v>1.9409200619084</v>
       </c>
       <c r="C8">
-        <v>0.4814844249995929</v>
+        <v>0.1571815991714232</v>
       </c>
       <c r="D8">
-        <v>0.1976474843525295</v>
+        <v>0.4266701204891916</v>
       </c>
       <c r="E8">
-        <v>0.0430658048261976</v>
+        <v>0.1134303408148538</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.872026851059474</v>
+        <v>2.740508935433382</v>
       </c>
       <c r="H8">
-        <v>1.161876394336673</v>
+        <v>2.165576408029267</v>
       </c>
       <c r="I8">
-        <v>1.152490301218641</v>
+        <v>2.065670961951696</v>
       </c>
       <c r="J8">
-        <v>0.04840541901675621</v>
+        <v>0.03790595533883945</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.296487516785362</v>
+        <v>0.5260560775649026</v>
       </c>
       <c r="M8">
-        <v>0.4812879590992338</v>
+        <v>0.5142924242991782</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.244587437991925</v>
+        <v>2.137809718738083</v>
       </c>
       <c r="C9">
-        <v>0.6551297708665516</v>
+        <v>0.2047584342905111</v>
       </c>
       <c r="D9">
-        <v>0.2198222074742091</v>
+        <v>0.4269502555145408</v>
       </c>
       <c r="E9">
-        <v>0.04153310632950991</v>
+        <v>0.1123707872186719</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.167104565128994</v>
+        <v>2.773161873653407</v>
       </c>
       <c r="H9">
-        <v>1.27535246479988</v>
+        <v>2.164209672494621</v>
       </c>
       <c r="I9">
-        <v>1.23926217136048</v>
+        <v>2.058883895543389</v>
       </c>
       <c r="J9">
-        <v>0.05935916099854666</v>
+        <v>0.04154659473463695</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3564416814031119</v>
+        <v>0.5343275230046913</v>
       </c>
       <c r="M9">
-        <v>0.631965771011906</v>
+        <v>0.5471286064829002</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.869922071853523</v>
+        <v>2.287251141630975</v>
       </c>
       <c r="C10">
-        <v>0.7865554072743919</v>
+        <v>0.2399114540610583</v>
       </c>
       <c r="D10">
-        <v>0.2378621107225314</v>
+        <v>0.4279246104307362</v>
       </c>
       <c r="E10">
-        <v>0.04052699452367392</v>
+        <v>0.1116773236940176</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.410785097279273</v>
+        <v>2.804466934489596</v>
       </c>
       <c r="H10">
-        <v>1.372672352471625</v>
+        <v>2.16790948609804</v>
       </c>
       <c r="I10">
-        <v>1.317576186101434</v>
+        <v>2.058557035134243</v>
       </c>
       <c r="J10">
-        <v>0.06756581791036709</v>
+        <v>0.0441590504693572</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4033858992504094</v>
+        <v>0.5414952820535319</v>
       </c>
       <c r="M10">
-        <v>0.7469559179688829</v>
+        <v>0.572497379253214</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.160078568507345</v>
+        <v>2.356277654694907</v>
       </c>
       <c r="C11">
-        <v>0.8475281767740057</v>
+        <v>0.2559498604182124</v>
       </c>
       <c r="D11">
-        <v>0.2465229103535478</v>
+        <v>0.4285346564553976</v>
       </c>
       <c r="E11">
-        <v>0.04009628366659568</v>
+        <v>0.1113801878686402</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.528885274049884</v>
+        <v>2.820313231063125</v>
       </c>
       <c r="H11">
-        <v>1.420624755123754</v>
+        <v>2.170619465028352</v>
       </c>
       <c r="I11">
-        <v>1.35702885462203</v>
+        <v>2.059427067895342</v>
       </c>
       <c r="J11">
-        <v>0.07135480475438882</v>
+        <v>0.0453343276036513</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4255244268431682</v>
+        <v>0.5449930953750197</v>
       </c>
       <c r="M11">
-        <v>0.8004885886443986</v>
+        <v>0.5843088976680306</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.270907712956728</v>
+        <v>2.382566286654708</v>
       </c>
       <c r="C12">
-        <v>0.8708204989123374</v>
+        <v>0.2620301602799771</v>
       </c>
       <c r="D12">
-        <v>0.2498748411563554</v>
+        <v>0.4287896356350132</v>
       </c>
       <c r="E12">
-        <v>0.03993715686977195</v>
+        <v>0.1112702965670032</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.574781899284972</v>
+        <v>2.826545901132761</v>
       </c>
       <c r="H12">
-        <v>1.439373915171331</v>
+        <v>2.171793733407981</v>
       </c>
       <c r="I12">
-        <v>1.372581647119631</v>
+        <v>2.059903552596182</v>
       </c>
       <c r="J12">
-        <v>0.07279960427818466</v>
+        <v>0.04577750718065943</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4340347948239867</v>
+        <v>0.5463517203715469</v>
       </c>
       <c r="M12">
-        <v>0.8209630937115762</v>
+        <v>0.5888205765226999</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.246993959873862</v>
+        <v>2.376897904500879</v>
       </c>
       <c r="C13">
-        <v>0.8657944788008365</v>
+        <v>0.2607203498005219</v>
       </c>
       <c r="D13">
-        <v>0.2491496096402557</v>
+        <v>0.428733655610543</v>
       </c>
       <c r="E13">
-        <v>0.0399712492765647</v>
+        <v>0.1112938468798315</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.56484272401164</v>
+        <v>2.825193246371242</v>
       </c>
       <c r="H13">
-        <v>1.435308626723582</v>
+        <v>2.171534242517566</v>
       </c>
       <c r="I13">
-        <v>1.369203740426471</v>
+        <v>2.059794385734207</v>
       </c>
       <c r="J13">
-        <v>0.07248796233348642</v>
+        <v>0.04568214352290312</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4321960408399406</v>
+        <v>0.5460576008676981</v>
       </c>
       <c r="M13">
-        <v>0.8165440581150776</v>
+        <v>0.5878471762373465</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.169176615665322</v>
+        <v>2.358437436801125</v>
       </c>
       <c r="C14">
-        <v>0.8494401756345553</v>
+        <v>0.2564499512443774</v>
       </c>
       <c r="D14">
-        <v>0.2467971847259918</v>
+        <v>0.4285551534951253</v>
       </c>
       <c r="E14">
-        <v>0.04008311197388625</v>
+        <v>0.111371094426604</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.532636862344447</v>
+        <v>2.820821339864892</v>
       </c>
       <c r="H14">
-        <v>1.422155046127727</v>
+        <v>2.17071310324215</v>
       </c>
       <c r="I14">
-        <v>1.358295723965696</v>
+        <v>2.059463318978899</v>
       </c>
       <c r="J14">
-        <v>0.07147345682476569</v>
+        <v>0.04537082567813044</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4262219468674857</v>
+        <v>0.5451041874107858</v>
       </c>
       <c r="M14">
-        <v>0.8021688075767059</v>
+        <v>0.5846792967415126</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.121639655301919</v>
+        <v>2.347149361128686</v>
       </c>
       <c r="C15">
-        <v>0.8394501980270377</v>
+        <v>0.2538351117224522</v>
       </c>
       <c r="D15">
-        <v>0.2453658878711877</v>
+        <v>0.4284489365989259</v>
       </c>
       <c r="E15">
-        <v>0.04015215168046282</v>
+        <v>0.1114187527499877</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.513067005485965</v>
+        <v>2.81817367143563</v>
       </c>
       <c r="H15">
-        <v>1.41417695604099</v>
+        <v>2.170229424905187</v>
       </c>
       <c r="I15">
-        <v>1.351696050302905</v>
+        <v>2.059279693490282</v>
       </c>
       <c r="J15">
-        <v>0.07085340703111953</v>
+        <v>0.04517989119382193</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4225796331249683</v>
+        <v>0.5445246315344718</v>
       </c>
       <c r="M15">
-        <v>0.7933908213674883</v>
+        <v>0.582743944557393</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.851085337057441</v>
+        <v>2.282761081973263</v>
       </c>
       <c r="C16">
-        <v>0.7825972724129997</v>
+        <v>0.2388642654736941</v>
       </c>
       <c r="D16">
-        <v>0.2373058257198295</v>
+        <v>0.4278880974539874</v>
       </c>
       <c r="E16">
-        <v>0.04055569314640994</v>
+        <v>0.1116971103138331</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.403223801436866</v>
+        <v>2.803463746565342</v>
       </c>
       <c r="H16">
-        <v>1.369617703139454</v>
+        <v>2.167753079891952</v>
       </c>
       <c r="I16">
-        <v>1.315080062466222</v>
+        <v>2.058520721057931</v>
       </c>
       <c r="J16">
-        <v>0.06731948394207166</v>
+        <v>0.04408198037862832</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4019560469195937</v>
+        <v>0.5412714618900907</v>
       </c>
       <c r="M16">
-        <v>0.7434842792993308</v>
+        <v>0.5717309180995045</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.686657431961805</v>
+        <v>2.243528236013674</v>
       </c>
       <c r="C17">
-        <v>0.7480457837244501</v>
+        <v>0.2296922942846322</v>
       </c>
       <c r="D17">
-        <v>0.2324823112637944</v>
+        <v>0.4275867504956778</v>
       </c>
       <c r="E17">
-        <v>0.04081022554596725</v>
+        <v>0.1118725616394567</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.337784576513485</v>
+        <v>2.794851703338395</v>
       </c>
       <c r="H17">
-        <v>1.343266300317197</v>
+        <v>2.166497215125332</v>
       </c>
       <c r="I17">
-        <v>1.293639906807925</v>
+        <v>2.05831641197625</v>
       </c>
       <c r="J17">
-        <v>0.06516714591949935</v>
+        <v>0.04340509399493442</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3895144869391061</v>
+        <v>0.53933647258593</v>
       </c>
       <c r="M17">
-        <v>0.713199732656534</v>
+        <v>0.5650441719985437</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.592609338886916</v>
+        <v>2.2210609136892</v>
       </c>
       <c r="C18">
-        <v>0.7282822006734762</v>
+        <v>0.2244212464074167</v>
       </c>
       <c r="D18">
-        <v>0.2297502616104055</v>
+        <v>0.4274291254236999</v>
       </c>
       <c r="E18">
-        <v>0.04095915844795073</v>
+        <v>0.111975201802573</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.300819182699996</v>
+        <v>2.79004932836051</v>
       </c>
       <c r="H18">
-        <v>1.328452092450732</v>
+        <v>2.165871509490302</v>
       </c>
       <c r="I18">
-        <v>1.281664190905275</v>
+        <v>2.058294753873213</v>
       </c>
       <c r="J18">
-        <v>0.06393429267906114</v>
+        <v>0.04301452879622758</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3824312159106711</v>
+        <v>0.5382458422389362</v>
       </c>
       <c r="M18">
-        <v>0.6958941984202127</v>
+        <v>0.5612236573689913</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.560852824344977</v>
+        <v>2.213470774507186</v>
       </c>
       <c r="C19">
-        <v>0.7216084687048294</v>
+        <v>0.2226373167656845</v>
       </c>
       <c r="D19">
-        <v>0.2288323038671933</v>
+        <v>0.4273784536540859</v>
       </c>
       <c r="E19">
-        <v>0.0410100168398686</v>
+        <v>0.1120102505298184</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.288415224324382</v>
+        <v>2.78844923361757</v>
       </c>
       <c r="H19">
-        <v>1.323493312798036</v>
+        <v>2.165676241611322</v>
       </c>
       <c r="I19">
-        <v>1.277668786572562</v>
+        <v>2.058303867888696</v>
       </c>
       <c r="J19">
-        <v>0.06351769176153255</v>
+        <v>0.04288207696669488</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3800450320210729</v>
+        <v>0.5378804085611506</v>
       </c>
       <c r="M19">
-        <v>0.6900535349057222</v>
+        <v>0.5599344830762973</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.704105643318542</v>
+        <v>2.247694461644983</v>
       </c>
       <c r="C20">
-        <v>0.7517122897044999</v>
+        <v>0.2306682071463797</v>
       </c>
       <c r="D20">
-        <v>0.2329913560270711</v>
+        <v>0.427617204463985</v>
       </c>
       <c r="E20">
-        <v>0.04078286737234693</v>
+        <v>0.1118537060485774</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.344680076856264</v>
+        <v>2.795752829195663</v>
       </c>
       <c r="H20">
-        <v>1.346035591081346</v>
+        <v>2.166620900003124</v>
       </c>
       <c r="I20">
-        <v>1.295884962887882</v>
+        <v>2.058328236592004</v>
       </c>
       <c r="J20">
-        <v>0.06539572305754859</v>
+        <v>0.04347727771284937</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3908312805057932</v>
+        <v>0.5395401452076243</v>
       </c>
       <c r="M20">
-        <v>0.7164116588695961</v>
+        <v>0.5657533463788127</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.192006431790844</v>
+        <v>2.363855661939283</v>
       </c>
       <c r="C21">
-        <v>0.8542380349678069</v>
+        <v>0.2577040824187691</v>
       </c>
       <c r="D21">
-        <v>0.2474861282916976</v>
+        <v>0.4286069335534393</v>
       </c>
       <c r="E21">
-        <v>0.04005014651321126</v>
+        <v>0.1113483336964389</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.542063493660805</v>
+        <v>2.822099168517695</v>
       </c>
       <c r="H21">
-        <v>1.426002018039014</v>
+        <v>2.170950270367513</v>
       </c>
       <c r="I21">
-        <v>1.361482503390619</v>
+        <v>2.059556566916271</v>
       </c>
       <c r="J21">
-        <v>0.07177115352547858</v>
+        <v>0.04546231795118416</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4279731141465533</v>
+        <v>0.5453833033464548</v>
       </c>
       <c r="M21">
-        <v>0.8063854315139238</v>
+        <v>0.5856087242273205</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.516508099631039</v>
+        <v>2.440646615335766</v>
       </c>
       <c r="C22">
-        <v>0.9224473625872349</v>
+        <v>0.2754138910188999</v>
       </c>
       <c r="D22">
-        <v>0.2573843686195261</v>
+        <v>0.4293934745926009</v>
       </c>
       <c r="E22">
-        <v>0.03959448841441837</v>
+        <v>0.1110333558404557</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.677984701579163</v>
+        <v>2.840670966602971</v>
       </c>
       <c r="H22">
-        <v>1.481741136582485</v>
+        <v>2.174642944945958</v>
       </c>
       <c r="I22">
-        <v>1.407961359863123</v>
+        <v>2.06121655909763</v>
       </c>
       <c r="J22">
-        <v>0.07599720904588025</v>
+        <v>0.04674875117422062</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4529955246009365</v>
+        <v>0.5494007736374442</v>
       </c>
       <c r="M22">
-        <v>0.8663856766612952</v>
+        <v>0.5988121456131665</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.342751412239409</v>
+        <v>2.399582113362044</v>
       </c>
       <c r="C23">
-        <v>0.885920866010963</v>
+        <v>0.2659581019322559</v>
       </c>
       <c r="D23">
-        <v>0.2520600967622784</v>
+        <v>0.4289609065527316</v>
       </c>
       <c r="E23">
-        <v>0.03983552254584444</v>
+        <v>0.1112000668163819</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.60475997698245</v>
+        <v>2.830634669357721</v>
       </c>
       <c r="H23">
-        <v>1.451651848814549</v>
+        <v>2.17259298395652</v>
       </c>
       <c r="I23">
-        <v>1.382802044238304</v>
+        <v>2.060251978901547</v>
       </c>
       <c r="J23">
-        <v>0.07373553520048404</v>
+        <v>0.04606314956512847</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4395669624305469</v>
+        <v>0.547238407195664</v>
       </c>
       <c r="M23">
-        <v>0.834243125878146</v>
+        <v>0.5917445041205482</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.696215810364265</v>
+        <v>2.245810636384363</v>
       </c>
       <c r="C24">
-        <v>0.7500543516443372</v>
+        <v>0.2302269905988794</v>
       </c>
       <c r="D24">
-        <v>0.2327610895329855</v>
+        <v>0.4276033875597278</v>
       </c>
       <c r="E24">
-        <v>0.04079522791486623</v>
+        <v>0.1118622251447423</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.341560586142975</v>
+        <v>2.795344966773911</v>
       </c>
       <c r="H24">
-        <v>1.344782554061084</v>
+        <v>2.166564682101665</v>
       </c>
       <c r="I24">
-        <v>1.294868885896619</v>
+        <v>2.058322592304421</v>
       </c>
       <c r="J24">
-        <v>0.06529236929332427</v>
+        <v>0.04344464786057856</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3902357425723153</v>
+        <v>0.5394479968456807</v>
       </c>
       <c r="M24">
-        <v>0.7149592205585478</v>
+        <v>0.5654326545495536</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.018526808396473</v>
+        <v>2.083705612056008</v>
       </c>
       <c r="C25">
-        <v>0.60758611914639</v>
+        <v>0.1918538473889839</v>
       </c>
       <c r="D25">
-        <v>0.2135395470744186</v>
+        <v>0.4267394596334952</v>
       </c>
       <c r="E25">
-        <v>0.04192696649903915</v>
+        <v>0.1126424599870797</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.082993378044392</v>
+        <v>2.76304917670123</v>
       </c>
       <c r="H25">
-        <v>1.242406603290391</v>
+        <v>2.163755089614966</v>
       </c>
       <c r="I25">
-        <v>1.213437010954962</v>
+        <v>2.059903973928321</v>
       </c>
       <c r="J25">
-        <v>0.05637448230120512</v>
+        <v>0.04057275824267847</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.339761677675952</v>
+        <v>0.5318983550226619</v>
       </c>
       <c r="M25">
-        <v>0.590540558322239</v>
+        <v>0.5380271593023878</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_98/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_98/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.967571021544131</v>
+        <v>2.532076492903911</v>
       </c>
       <c r="C2">
-        <v>0.1637334480314792</v>
+        <v>0.5051444020395763</v>
       </c>
       <c r="D2">
-        <v>0.4266199014622885</v>
+        <v>0.2005334554656741</v>
       </c>
       <c r="E2">
-        <v>0.1132740720607268</v>
+        <v>0.04284046312055745</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.744180517121833</v>
+        <v>1.910144802015253</v>
       </c>
       <c r="H2">
-        <v>2.164845502587241</v>
+        <v>1.176153333691587</v>
       </c>
       <c r="I2">
-        <v>2.064196837229218</v>
+        <v>1.163011102392574</v>
       </c>
       <c r="J2">
-        <v>0.03841630471900359</v>
+        <v>0.0499073007280586</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5270728295534326</v>
+        <v>0.304486364801889</v>
       </c>
       <c r="M2">
-        <v>0.5186856003755764</v>
+        <v>0.501705304496511</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.890872322692871</v>
+        <v>2.208318460280736</v>
       </c>
       <c r="C3">
-        <v>0.1447541359414402</v>
+        <v>0.4367985602465296</v>
       </c>
       <c r="D3">
-        <v>0.4268612994262497</v>
+        <v>0.1923365847849396</v>
       </c>
       <c r="E3">
-        <v>0.1137379469430866</v>
+        <v>0.04350838575199445</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.734431218647131</v>
+        <v>1.80210508341608</v>
       </c>
       <c r="H3">
-        <v>2.167547073505574</v>
+        <v>1.136096830077605</v>
       </c>
       <c r="I3">
-        <v>2.069047276777681</v>
+        <v>1.133916166530952</v>
       </c>
       <c r="J3">
-        <v>0.0369281932152461</v>
+        <v>0.04555889605936869</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5242597289030186</v>
+        <v>0.2815569753882841</v>
       </c>
       <c r="M3">
-        <v>0.506099083042379</v>
+        <v>0.4428518716632084</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.844769412694802</v>
+        <v>2.01189245133429</v>
       </c>
       <c r="C4">
-        <v>0.1331379115483742</v>
+        <v>0.3952349259449193</v>
       </c>
       <c r="D4">
-        <v>0.4271686745170129</v>
+        <v>0.1875794920745903</v>
       </c>
       <c r="E4">
-        <v>0.1140405009964129</v>
+        <v>0.04394223480222603</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.729935943309243</v>
+        <v>1.739718875609867</v>
       </c>
       <c r="H4">
-        <v>2.170171481535164</v>
+        <v>1.113642360772701</v>
       </c>
       <c r="I4">
-        <v>2.072979670394673</v>
+        <v>1.118302362806631</v>
       </c>
       <c r="J4">
-        <v>0.03600117836106165</v>
+        <v>0.0428980347273864</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5227580552600273</v>
+        <v>0.2679013289518224</v>
       </c>
       <c r="M4">
-        <v>0.4986281983259531</v>
+        <v>0.4072713888554347</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.826231723026069</v>
+        <v>1.932366997209442</v>
       </c>
       <c r="C5">
-        <v>0.1284134402068275</v>
+        <v>0.3783805509533806</v>
       </c>
       <c r="D5">
-        <v>0.4273339847342115</v>
+        <v>0.1857063871880626</v>
       </c>
       <c r="E5">
-        <v>0.1141682619170927</v>
+        <v>0.044124953312767</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.728477983413086</v>
+        <v>1.715216015665987</v>
       </c>
       <c r="H5">
-        <v>2.171483475714922</v>
+        <v>1.104996279267738</v>
       </c>
       <c r="I5">
-        <v>2.074821666115312</v>
+        <v>1.112470745479591</v>
       </c>
       <c r="J5">
-        <v>0.03562004870457613</v>
+        <v>0.04181493132886871</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5222028807414603</v>
+        <v>0.262434979354083</v>
       </c>
       <c r="M5">
-        <v>0.4956485522005067</v>
+        <v>0.3928969243936677</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.823168647764589</v>
+        <v>1.919191180248163</v>
       </c>
       <c r="C6">
-        <v>0.127629500047135</v>
+        <v>0.3755864254091819</v>
       </c>
       <c r="D6">
-        <v>0.4273638543759901</v>
+        <v>0.1853992035194238</v>
       </c>
       <c r="E6">
-        <v>0.1141897466104336</v>
+        <v>0.04415564987831422</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.728258444428747</v>
+        <v>1.711200856425677</v>
       </c>
       <c r="H6">
-        <v>2.171715970964925</v>
+        <v>1.103590117150929</v>
       </c>
       <c r="I6">
-        <v>2.075141981617236</v>
+        <v>1.111533518756616</v>
       </c>
       <c r="J6">
-        <v>0.03555655876875008</v>
+        <v>0.04163512697434513</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.522114124567068</v>
+        <v>0.2615330201823838</v>
       </c>
       <c r="M6">
-        <v>0.4951577011303669</v>
+        <v>0.3905171837696457</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.844518395449711</v>
+        <v>2.01081793303149</v>
       </c>
       <c r="C7">
-        <v>0.133074158422545</v>
+        <v>0.3950073076863703</v>
       </c>
       <c r="D7">
-        <v>0.4271707417350896</v>
+        <v>0.1875539706882634</v>
       </c>
       <c r="E7">
-        <v>0.114042205923917</v>
+        <v>0.04394467509319755</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.729914768150962</v>
+        <v>1.739384789451151</v>
       </c>
       <c r="H7">
-        <v>2.170188193965515</v>
+        <v>1.113523757849435</v>
       </c>
       <c r="I7">
-        <v>2.073003542994272</v>
+        <v>1.118221609206678</v>
       </c>
       <c r="J7">
-        <v>0.03599605195458011</v>
+        <v>0.0428834240242999</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5227503380623375</v>
+        <v>0.2678272193628999</v>
       </c>
       <c r="M7">
-        <v>0.4985877512647718</v>
+        <v>0.4070770430500446</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.9409200619084</v>
+        <v>2.419907654120664</v>
       </c>
       <c r="C8">
-        <v>0.1571815991714232</v>
+        <v>0.4814844249995929</v>
       </c>
       <c r="D8">
-        <v>0.4266701204891916</v>
+        <v>0.1976474843525295</v>
       </c>
       <c r="E8">
-        <v>0.1134303408148538</v>
+        <v>0.04306580482621714</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.740508935433382</v>
+        <v>1.872026851059474</v>
       </c>
       <c r="H8">
-        <v>2.165576408029267</v>
+        <v>1.16187639433673</v>
       </c>
       <c r="I8">
-        <v>2.065670961951696</v>
+        <v>1.152490301218663</v>
       </c>
       <c r="J8">
-        <v>0.03790595533883945</v>
+        <v>0.04840541901686279</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5260560775649026</v>
+        <v>0.2964875167853478</v>
       </c>
       <c r="M8">
-        <v>0.5142924242991782</v>
+        <v>0.4812879590992409</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.137809718738083</v>
+        <v>3.244587437991981</v>
       </c>
       <c r="C9">
-        <v>0.2047584342905111</v>
+        <v>0.6551297708665231</v>
       </c>
       <c r="D9">
-        <v>0.4269502555145408</v>
+        <v>0.2198222074742944</v>
       </c>
       <c r="E9">
-        <v>0.1123707872186719</v>
+        <v>0.04153310632950813</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.773161873653407</v>
+        <v>2.167104565128994</v>
       </c>
       <c r="H9">
-        <v>2.164209672494621</v>
+        <v>1.275352464799738</v>
       </c>
       <c r="I9">
-        <v>2.058883895543389</v>
+        <v>1.239262171360451</v>
       </c>
       <c r="J9">
-        <v>0.04154659473463695</v>
+        <v>0.05935916099863547</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5343275230046913</v>
+        <v>0.3564416814032398</v>
       </c>
       <c r="M9">
-        <v>0.5471286064829002</v>
+        <v>0.6319657710119131</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.287251141630975</v>
+        <v>3.869922071853409</v>
       </c>
       <c r="C10">
-        <v>0.2399114540610583</v>
+        <v>0.7865554072744203</v>
       </c>
       <c r="D10">
-        <v>0.4279246104307362</v>
+        <v>0.2378621107224888</v>
       </c>
       <c r="E10">
-        <v>0.1116773236940176</v>
+        <v>0.04052699452366237</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.804466934489596</v>
+        <v>2.410785097279387</v>
       </c>
       <c r="H10">
-        <v>2.16790948609804</v>
+        <v>1.372672352471511</v>
       </c>
       <c r="I10">
-        <v>2.058557035134243</v>
+        <v>1.317576186101476</v>
       </c>
       <c r="J10">
-        <v>0.0441590504693572</v>
+        <v>0.06756581791034932</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5414952820535319</v>
+        <v>0.4033858992502815</v>
       </c>
       <c r="M10">
-        <v>0.572497379253214</v>
+        <v>0.7469559179688687</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.356277654694907</v>
+        <v>4.160078568507231</v>
       </c>
       <c r="C11">
-        <v>0.2559498604182124</v>
+        <v>0.8475281767739489</v>
       </c>
       <c r="D11">
-        <v>0.4285346564553976</v>
+        <v>0.2465229103535762</v>
       </c>
       <c r="E11">
-        <v>0.1113801878686402</v>
+        <v>0.04009628366656948</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.820313231063125</v>
+        <v>2.528885274049856</v>
       </c>
       <c r="H11">
-        <v>2.170619465028352</v>
+        <v>1.42062475512364</v>
       </c>
       <c r="I11">
-        <v>2.059427067895342</v>
+        <v>1.357028854622058</v>
       </c>
       <c r="J11">
-        <v>0.0453343276036513</v>
+        <v>0.07135480475458067</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5449930953750197</v>
+        <v>0.4255244268431824</v>
       </c>
       <c r="M11">
-        <v>0.5843088976680306</v>
+        <v>0.8004885886443986</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.382566286654708</v>
+        <v>4.270907712956785</v>
       </c>
       <c r="C12">
-        <v>0.2620301602799771</v>
+        <v>0.87082049891211</v>
       </c>
       <c r="D12">
-        <v>0.4287896356350132</v>
+        <v>0.2498748411564264</v>
       </c>
       <c r="E12">
-        <v>0.1112702965670032</v>
+        <v>0.0399371568697684</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.826545901132761</v>
+        <v>2.574781899284915</v>
       </c>
       <c r="H12">
-        <v>2.171793733407981</v>
+        <v>1.439373915171359</v>
       </c>
       <c r="I12">
-        <v>2.059903552596182</v>
+        <v>1.372581647119631</v>
       </c>
       <c r="J12">
-        <v>0.04577750718065943</v>
+        <v>0.07279960427829124</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5463517203715469</v>
+        <v>0.4340347948239724</v>
       </c>
       <c r="M12">
-        <v>0.5888205765226999</v>
+        <v>0.8209630937115904</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.376897904500879</v>
+        <v>4.246993959874089</v>
       </c>
       <c r="C13">
-        <v>0.2607203498005219</v>
+        <v>0.8657944788007796</v>
       </c>
       <c r="D13">
-        <v>0.428733655610543</v>
+        <v>0.2491496096402699</v>
       </c>
       <c r="E13">
-        <v>0.1112938468798315</v>
+        <v>0.03997124927655449</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.825193246371242</v>
+        <v>2.56484272401164</v>
       </c>
       <c r="H13">
-        <v>2.171534242517566</v>
+        <v>1.435308626723668</v>
       </c>
       <c r="I13">
-        <v>2.059794385734207</v>
+        <v>1.369203740426471</v>
       </c>
       <c r="J13">
-        <v>0.04568214352290312</v>
+        <v>0.07248796233337274</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5460576008676981</v>
+        <v>0.4321960408399832</v>
       </c>
       <c r="M13">
-        <v>0.5878471762373465</v>
+        <v>0.8165440581150705</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.358437436801125</v>
+        <v>4.169176615665492</v>
       </c>
       <c r="C14">
-        <v>0.2564499512443774</v>
+        <v>0.8494401756347258</v>
       </c>
       <c r="D14">
-        <v>0.4285551534951253</v>
+        <v>0.2467971847257502</v>
       </c>
       <c r="E14">
-        <v>0.111371094426604</v>
+        <v>0.04008311197386005</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.820821339864892</v>
+        <v>2.53263686234439</v>
       </c>
       <c r="H14">
-        <v>2.17071310324215</v>
+        <v>1.422155046127727</v>
       </c>
       <c r="I14">
-        <v>2.059463318978899</v>
+        <v>1.358295723965682</v>
       </c>
       <c r="J14">
-        <v>0.04537082567813044</v>
+        <v>0.07147345682478701</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5451041874107858</v>
+        <v>0.4262219468674715</v>
       </c>
       <c r="M14">
-        <v>0.5846792967415126</v>
+        <v>0.8021688075767273</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.347149361128686</v>
+        <v>4.121639655301919</v>
       </c>
       <c r="C15">
-        <v>0.2538351117224522</v>
+        <v>0.8394501980270661</v>
       </c>
       <c r="D15">
-        <v>0.4284489365989259</v>
+        <v>0.2453658878714151</v>
       </c>
       <c r="E15">
-        <v>0.1114187527499877</v>
+        <v>0.0401521516804344</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.81817367143563</v>
+        <v>2.513067005485993</v>
       </c>
       <c r="H15">
-        <v>2.170229424905187</v>
+        <v>1.41417695604099</v>
       </c>
       <c r="I15">
-        <v>2.059279693490282</v>
+        <v>1.351696050302905</v>
       </c>
       <c r="J15">
-        <v>0.04517989119382193</v>
+        <v>0.07085340703093124</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5445246315344718</v>
+        <v>0.4225796331250677</v>
       </c>
       <c r="M15">
-        <v>0.582743944557393</v>
+        <v>0.7933908213675025</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.282761081973263</v>
+        <v>3.851085337057498</v>
       </c>
       <c r="C16">
-        <v>0.2388642654736941</v>
+        <v>0.7825972724129144</v>
       </c>
       <c r="D16">
-        <v>0.4278880974539874</v>
+        <v>0.2373058257195879</v>
       </c>
       <c r="E16">
-        <v>0.1116971103138331</v>
+        <v>0.04055569314639396</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.803463746565342</v>
+        <v>2.403223801436894</v>
       </c>
       <c r="H16">
-        <v>2.167753079891952</v>
+        <v>1.369617703139568</v>
       </c>
       <c r="I16">
-        <v>2.058520721057931</v>
+        <v>1.315080062466237</v>
       </c>
       <c r="J16">
-        <v>0.04408198037862832</v>
+        <v>0.06731948394205389</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5412714618900907</v>
+        <v>0.4019560469196364</v>
       </c>
       <c r="M16">
-        <v>0.5717309180995045</v>
+        <v>0.7434842792993237</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.243528236013674</v>
+        <v>3.686657431961805</v>
       </c>
       <c r="C17">
-        <v>0.2296922942846322</v>
+        <v>0.7480457837244217</v>
       </c>
       <c r="D17">
-        <v>0.4275867504956778</v>
+        <v>0.2324823112636523</v>
       </c>
       <c r="E17">
-        <v>0.1118725616394567</v>
+        <v>0.04081022554593483</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.794851703338395</v>
+        <v>2.337784576513371</v>
       </c>
       <c r="H17">
-        <v>2.166497215125332</v>
+        <v>1.343266300317197</v>
       </c>
       <c r="I17">
-        <v>2.05831641197625</v>
+        <v>1.29363990680794</v>
       </c>
       <c r="J17">
-        <v>0.04340509399493442</v>
+        <v>0.0651671459194425</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.53933647258593</v>
+        <v>0.3895144869391203</v>
       </c>
       <c r="M17">
-        <v>0.5650441719985437</v>
+        <v>0.7131997326565056</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.2210609136892</v>
+        <v>3.592609338886746</v>
       </c>
       <c r="C18">
-        <v>0.2244212464074167</v>
+        <v>0.7282822006735046</v>
       </c>
       <c r="D18">
-        <v>0.4274291254236999</v>
+        <v>0.2297502616105191</v>
       </c>
       <c r="E18">
-        <v>0.111975201802573</v>
+        <v>0.04095915844794629</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.79004932836051</v>
+        <v>2.300819182700025</v>
       </c>
       <c r="H18">
-        <v>2.165871509490302</v>
+        <v>1.32845209245076</v>
       </c>
       <c r="I18">
-        <v>2.058294753873213</v>
+        <v>1.281664190905332</v>
       </c>
       <c r="J18">
-        <v>0.04301452879622758</v>
+        <v>0.06393429267903983</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5382458422389362</v>
+        <v>0.3824312159106569</v>
       </c>
       <c r="M18">
-        <v>0.5612236573689913</v>
+        <v>0.695894198420234</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.213470774507186</v>
+        <v>3.56085282434492</v>
       </c>
       <c r="C19">
-        <v>0.2226373167656845</v>
+        <v>0.7216084687044884</v>
       </c>
       <c r="D19">
-        <v>0.4273784536540859</v>
+        <v>0.2288323038670512</v>
       </c>
       <c r="E19">
-        <v>0.1120102505298184</v>
+        <v>0.04101001683986549</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.78844923361757</v>
+        <v>2.288415224324439</v>
       </c>
       <c r="H19">
-        <v>2.165676241611322</v>
+        <v>1.323493312798149</v>
       </c>
       <c r="I19">
-        <v>2.058303867888696</v>
+        <v>1.277668786572562</v>
       </c>
       <c r="J19">
-        <v>0.04288207696669488</v>
+        <v>0.0635176917614686</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5378804085611506</v>
+        <v>0.3800450320211155</v>
       </c>
       <c r="M19">
-        <v>0.5599344830762973</v>
+        <v>0.6900535349057222</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.247694461644983</v>
+        <v>3.704105643318428</v>
       </c>
       <c r="C20">
-        <v>0.2306682071463797</v>
+        <v>0.7517122897042725</v>
       </c>
       <c r="D20">
-        <v>0.427617204463985</v>
+        <v>0.2329913560269716</v>
       </c>
       <c r="E20">
-        <v>0.1118537060485774</v>
+        <v>0.04078286737234693</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.795752829195663</v>
+        <v>2.344680076856264</v>
       </c>
       <c r="H20">
-        <v>2.166620900003124</v>
+        <v>1.346035591081346</v>
       </c>
       <c r="I20">
-        <v>2.058328236592004</v>
+        <v>1.295884962887868</v>
       </c>
       <c r="J20">
-        <v>0.04347727771284937</v>
+        <v>0.06539572305758057</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5395401452076243</v>
+        <v>0.3908312805056511</v>
       </c>
       <c r="M20">
-        <v>0.5657533463788127</v>
+        <v>0.7164116588695748</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.363855661939283</v>
+        <v>4.192006431791015</v>
       </c>
       <c r="C21">
-        <v>0.2577040824187691</v>
+        <v>0.8542380349681764</v>
       </c>
       <c r="D21">
-        <v>0.4286069335534393</v>
+        <v>0.2474861282916976</v>
       </c>
       <c r="E21">
-        <v>0.1113483336964389</v>
+        <v>0.04005014651321082</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.822099168517695</v>
+        <v>2.542063493660777</v>
       </c>
       <c r="H21">
-        <v>2.170950270367513</v>
+        <v>1.426002018038901</v>
       </c>
       <c r="I21">
-        <v>2.059556566916271</v>
+        <v>1.361482503390619</v>
       </c>
       <c r="J21">
-        <v>0.04546231795118416</v>
+        <v>0.07177115352565266</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5453833033464548</v>
+        <v>0.4279731141464254</v>
       </c>
       <c r="M21">
-        <v>0.5856087242273205</v>
+        <v>0.8063854315139167</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.440646615335766</v>
+        <v>4.516508099631153</v>
       </c>
       <c r="C22">
-        <v>0.2754138910188999</v>
+        <v>0.9224473625874623</v>
       </c>
       <c r="D22">
-        <v>0.4293934745926009</v>
+        <v>0.2573843686196113</v>
       </c>
       <c r="E22">
-        <v>0.1110333558404557</v>
+        <v>0.03959448841443169</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.840670966602971</v>
+        <v>2.67798470157922</v>
       </c>
       <c r="H22">
-        <v>2.174642944945958</v>
+        <v>1.481741136582542</v>
       </c>
       <c r="I22">
-        <v>2.06121655909763</v>
+        <v>1.407961359863137</v>
       </c>
       <c r="J22">
-        <v>0.04674875117422062</v>
+        <v>0.07599720904597973</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5494007736374442</v>
+        <v>0.4529955246009365</v>
       </c>
       <c r="M22">
-        <v>0.5988121456131665</v>
+        <v>0.8663856766613165</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.399582113362044</v>
+        <v>4.342751412239579</v>
       </c>
       <c r="C23">
-        <v>0.2659581019322559</v>
+        <v>0.8859208660110482</v>
       </c>
       <c r="D23">
-        <v>0.4289609065527316</v>
+        <v>0.2520600967621363</v>
       </c>
       <c r="E23">
-        <v>0.1112000668163819</v>
+        <v>0.03983552254580447</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.830634669357721</v>
+        <v>2.604759976982507</v>
       </c>
       <c r="H23">
-        <v>2.17259298395652</v>
+        <v>1.451651848814521</v>
       </c>
       <c r="I23">
-        <v>2.060251978901547</v>
+        <v>1.382802044238332</v>
       </c>
       <c r="J23">
-        <v>0.04606314956512847</v>
+        <v>0.07373553520053377</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.547238407195664</v>
+        <v>0.4395669624304475</v>
       </c>
       <c r="M23">
-        <v>0.5917445041205482</v>
+        <v>0.8342431258781602</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.245810636384363</v>
+        <v>3.696215810364265</v>
       </c>
       <c r="C24">
-        <v>0.2302269905988794</v>
+        <v>0.7500543516443372</v>
       </c>
       <c r="D24">
-        <v>0.4276033875597278</v>
+        <v>0.2327610895329997</v>
       </c>
       <c r="E24">
-        <v>0.1118622251447423</v>
+        <v>0.04079522791483159</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.795344966773911</v>
+        <v>2.341560586142975</v>
       </c>
       <c r="H24">
-        <v>2.166564682101665</v>
+        <v>1.344782554061169</v>
       </c>
       <c r="I24">
-        <v>2.058322592304421</v>
+        <v>1.294868885896619</v>
       </c>
       <c r="J24">
-        <v>0.04344464786057856</v>
+        <v>0.06529236929330295</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5394479968456807</v>
+        <v>0.3902357425722158</v>
       </c>
       <c r="M24">
-        <v>0.5654326545495536</v>
+        <v>0.7149592205585478</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.083705612056008</v>
+        <v>3.01852680839653</v>
       </c>
       <c r="C25">
-        <v>0.1918538473889839</v>
+        <v>0.6075861191463616</v>
       </c>
       <c r="D25">
-        <v>0.4267394596334952</v>
+        <v>0.2135395470745038</v>
       </c>
       <c r="E25">
-        <v>0.1126424599870797</v>
+        <v>0.04192696649907335</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.76304917670123</v>
+        <v>2.082993378044307</v>
       </c>
       <c r="H25">
-        <v>2.163755089614966</v>
+        <v>1.242406603290419</v>
       </c>
       <c r="I25">
-        <v>2.059903973928321</v>
+        <v>1.213437010954941</v>
       </c>
       <c r="J25">
-        <v>0.04057275824267847</v>
+        <v>0.05637448230122644</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5318983550226619</v>
+        <v>0.3397616776760657</v>
       </c>
       <c r="M25">
-        <v>0.5380271593023878</v>
+        <v>0.5905405583222532</v>
       </c>
       <c r="N25">
         <v>0</v>
